--- a/data/CS3/case30/case30_2045.xlsx
+++ b/data/CS3/case30/case30_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B8FB22-ED5D-486A-914F-1220D188B995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945E5DA4-96F1-4D9B-B2CE-1383013AD193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7451,8 +7451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
@@ -22354,7 +22353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/data/CS3/case30/case30_2045.xlsx
+++ b/data/CS3/case30/case30_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945E5DA4-96F1-4D9B-B2CE-1383013AD193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A59494-ED58-4D36-A0C4-9523D655C5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2045.xlsx
+++ b/data/CS3/case30/case30_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A59494-ED58-4D36-A0C4-9523D655C5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B918E78-05E2-45C2-B061-18A7951592A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2045.xlsx
+++ b/data/CS3/case30/case30_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B918E78-05E2-45C2-B061-18A7951592A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368E4AD0-7F98-4173-91BD-785554AF0BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2045.xlsx
+++ b/data/CS3/case30/case30_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368E4AD0-7F98-4173-91BD-785554AF0BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D488FE9C-5E33-4E2C-A167-B39D16827AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2045.xlsx
+++ b/data/CS3/case30/case30_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D488FE9C-5E33-4E2C-A167-B39D16827AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D21A74-1362-43A9-B8C0-4192CDBFC0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS3/case30/case30_2045.xlsx
+++ b/data/CS3/case30/case30_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D21A74-1362-43A9-B8C0-4192CDBFC0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC226D0-BCB3-41AE-9970-2518171F477F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2045.xlsx
+++ b/data/CS3/case30/case30_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC226D0-BCB3-41AE-9970-2518171F477F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7649B857-D76D-499C-AAD2-32DCD004EA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2045.xlsx
+++ b/data/CS3/case30/case30_2045.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7649B857-D76D-499C-AAD2-32DCD004EA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2FF3CC-FBA0-42EC-8FE9-B1F18A762F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2045.xlsx
+++ b/data/CS3/case30/case30_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2FF3CC-FBA0-42EC-8FE9-B1F18A762F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3F14B8-39A4-446E-AC3E-B8813CF59CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48420" yWindow="-2760" windowWidth="16650" windowHeight="9630" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2045.xlsx
+++ b/data/CS3/case30/case30_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3F14B8-39A4-446E-AC3E-B8813CF59CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B121A5-4B2F-42A7-A1CA-E0854FAA8A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="48420" yWindow="-2760" windowWidth="16650" windowHeight="9630" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
